--- a/inst/Data_Template.xlsx
+++ b/inst/Data_Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\GitHub\SLAM\inst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SLAM\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8440F7BC-5087-481F-B01A-3EDB35599740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{9A985D47-444C-4718-B365-CBE3CB52C401}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="23230" windowHeight="13870"/>
   </bookViews>
   <sheets>
     <sheet name="At-Age-Schedules" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Effort-Data" sheetId="3" r:id="rId3"/>
     <sheet name="Index-Data" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Weight_Age</t>
   </si>
@@ -56,9 +55,6 @@
     <t>PSM_at_Age</t>
   </si>
   <si>
-    <t>Maximum_Age</t>
-  </si>
-  <si>
     <t>At-Age Schedules</t>
   </si>
   <si>
@@ -73,11 +69,17 @@
   <si>
     <t>SD</t>
   </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Ages</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,60 +439,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E235A83-1AB4-443E-8CEB-CFD3269EDB22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A8:A23"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.68359375" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
     </row>
   </sheetData>
@@ -500,27 +502,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE1B999-AAC2-4BEB-8747-93521BB82778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.3125" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -533,27 +538,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF471536-726C-4083-A0AB-426A0F41CD09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -562,27 +567,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CF483D-8CBA-41C6-95E6-F58C9584AC33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/inst/Data_Template.xlsx
+++ b/inst/Data_Template.xlsx
@@ -14,8 +14,7 @@
   <sheets>
     <sheet name="At-Age-Schedules" sheetId="1" r:id="rId1"/>
     <sheet name="CAW-Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Effort-Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Index-Data" sheetId="4" r:id="rId4"/>
+    <sheet name="Time-Series-Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
-  <si>
-    <t>Weight_Age</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Weight_Age_SD</t>
   </si>
@@ -52,9 +48,6 @@
     <t>M_at_Age</t>
   </si>
   <si>
-    <t>PSM_at_Age</t>
-  </si>
-  <si>
     <t>At-Age Schedules</t>
   </si>
   <si>
@@ -64,16 +57,28 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
     <t>Weight</t>
   </si>
   <si>
     <t>Ages</t>
+  </si>
+  <si>
+    <t>Weight_Age_Mean</t>
+  </si>
+  <si>
+    <t>Post_Spawning_Mortality</t>
+  </si>
+  <si>
+    <t>Index_Mean</t>
+  </si>
+  <si>
+    <t>Index_SD</t>
+  </si>
+  <si>
+    <t>Effort_Mean</t>
+  </si>
+  <si>
+    <t>Effort_SD</t>
   </si>
 </sst>
 </file>
@@ -443,47 +448,47 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
@@ -516,13 +521,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -539,55 +544,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/inst/Data_Template.xlsx
+++ b/inst/Data_Template.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="-100" yWindow="-100" windowWidth="23230" windowHeight="13870"/>
   </bookViews>
   <sheets>
-    <sheet name="At-Age-Schedules" sheetId="1" r:id="rId1"/>
-    <sheet name="CAW-Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Time-Series-Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Metadata" sheetId="4" r:id="rId1"/>
+    <sheet name="At-Age-Schedules" sheetId="1" r:id="rId2"/>
+    <sheet name="CAW-Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Time-Series-Data" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Weight_Age_SD</t>
   </si>
@@ -79,6 +80,30 @@
   </si>
   <si>
     <t>Effort_SD</t>
+  </si>
+  <si>
+    <t>Fishery</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Common_Name</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -128,9 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,9 +471,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -506,7 +588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -542,7 +624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
